--- a/Deliverables/marker_species_proportions.xlsx
+++ b/Deliverables/marker_species_proportions.xlsx
@@ -1,35 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intern\Arctic-predator-diet-microbiome\Deliverables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
-    <sheet name="12s" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="16s" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="12S" sheetId="1" r:id="rId1"/>
+    <sheet name="16S" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">Marker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prop_abundance</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+  <si>
+    <t>Marker</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>prop_abundance</t>
+  </si>
+  <si>
+    <t>12S</t>
+  </si>
+  <si>
+    <t>Clupea pallasii</t>
+  </si>
+  <si>
+    <t>Gadus chalcogrammus</t>
+  </si>
+  <si>
+    <t>Artedius harringtoni</t>
+  </si>
+  <si>
+    <t>Chitonotus pugetensis</t>
+  </si>
+  <si>
+    <t>Gymnelus viridis</t>
+  </si>
+  <si>
+    <t>Ophiodon elongatus</t>
+  </si>
+  <si>
+    <t>Stenobrachius leucopsarus</t>
+  </si>
+  <si>
+    <t>Oncorhynchus kisutch</t>
+  </si>
+  <si>
+    <t>Liparis spp.</t>
+  </si>
+  <si>
+    <t>Citharichthys sordidus</t>
+  </si>
+  <si>
+    <t>Hypomesus olidus</t>
+  </si>
+  <si>
+    <t>Gymnocanthus spp.</t>
+  </si>
+  <si>
+    <t>Pungitius pungitius</t>
+  </si>
+  <si>
+    <t>Coregonus laurettae</t>
+  </si>
+  <si>
+    <t>Melanogrammus aeglefinus</t>
+  </si>
+  <si>
+    <t>Eleginus gracilis</t>
+  </si>
+  <si>
+    <t>Chesnonia verrucosa</t>
+  </si>
+  <si>
+    <t>Ammodytes personatus</t>
+  </si>
+  <si>
+    <t>Mallotus villosus</t>
+  </si>
+  <si>
+    <t>Coregonus spp.</t>
+  </si>
+  <si>
+    <t>Ammodytes spp.</t>
+  </si>
+  <si>
+    <t>Lumpenus sagitta</t>
+  </si>
+  <si>
+    <t>Myoxocephalus spp.</t>
+  </si>
+  <si>
+    <t>Osmerus mordax</t>
+  </si>
+  <si>
+    <t>Gasterosteus aculeatus</t>
+  </si>
+  <si>
+    <t>Clupea spp.</t>
+  </si>
+  <si>
+    <t>Aspidophoroides monopterygius</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>Microcottus sellaris</t>
+  </si>
+  <si>
+    <t>Ammodytes hexapterus</t>
+  </si>
+  <si>
+    <t>Limanda aspera</t>
+  </si>
+  <si>
+    <t>Oncorhynchus keta</t>
+  </si>
+  <si>
+    <t>Stichaeus punctatus</t>
+  </si>
+  <si>
+    <t>Parophrys vetulus</t>
+  </si>
+  <si>
+    <t>Gymnocanthus tricuspis</t>
+  </si>
+  <si>
+    <t>Gymnocanthus pistilliger</t>
+  </si>
+  <si>
+    <t>Pallasina barbata</t>
+  </si>
+  <si>
+    <t>Esox lucius</t>
+  </si>
+  <si>
+    <t>Salvelinus spp.</t>
+  </si>
+  <si>
+    <t>total equal to:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -65,6 +194,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -346,14 +484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -364,21 +508,333 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0.51569895575492697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>9.5666557956236103E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4.99119661805658E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4.99119661805658E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>4.99119661805658E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>4.99119661805658E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>4.99119661805658E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>4.8690878322937302E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3.79066134598008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>2.49559830902829E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1.22431327863408E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>7.7987205718161E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>3.5487210781209302E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>1.1174320786693801E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>9.7675080588191109E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>5.2245936632843598E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>3.0102710378629102E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>2.9994127037615698E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>2.9676382716055502E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1.87473138548303E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1.3227552874708201E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>7.16097075761347E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1.11113014649523E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>9.4674958397889301E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>4.0506470359146603E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>2.4380529453589799E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <f>SUM(C2:C28)</f>
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,8 +845,215 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>0.45241657511826899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0.147592603538892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>7.1236226964228697E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>6.3912256525738398E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>6.3912256525738398E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>6.3590894067257597E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>5.5839330306785499E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>2.3557402245063801E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>2.0895301358046198E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1.3563276776715E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>7.6610750843659897E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>5.0127983699793204E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>3.6802536000526999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>3.1810179576594998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>2.6330906365178899E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>7.0862707041380497E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>3.5492066889422901E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>2.5209318538281701E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <f>SUM(C2:C19)</f>
+        <v>1.0000000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Deliverables/marker_species_proportions.xlsx
+++ b/Deliverables/marker_species_proportions.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intern\Arctic-predator-diet-microbiome\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_23C5DBA461E8E0F11551279D1C235390A67078E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53D52241-D054-430D-B969-2516E6377190}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
+    <workbookView minimized="1" xWindow="-25200" yWindow="1335" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12S" sheetId="1" r:id="rId1"/>
     <sheet name="16S" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="47">
   <si>
     <t>Marker</t>
   </si>
@@ -31,15 +45,27 @@
     <t>prop_abundance</t>
   </si>
   <si>
+    <t>Predator</t>
+  </si>
+  <si>
     <t>12S</t>
   </si>
   <si>
     <t>Clupea pallasii</t>
   </si>
   <si>
+    <t>ringed seal</t>
+  </si>
+  <si>
+    <t>Beluga whale</t>
+  </si>
+  <si>
     <t>Gadus chalcogrammus</t>
   </si>
   <si>
+    <t>bearded seal</t>
+  </si>
+  <si>
     <t>Artedius harringtoni</t>
   </si>
   <si>
@@ -124,12 +150,12 @@
     <t>Ammodytes hexapterus</t>
   </si>
   <si>
+    <t>Oncorhynchus keta</t>
+  </si>
+  <si>
     <t>Limanda aspera</t>
   </si>
   <si>
-    <t>Oncorhynchus keta</t>
-  </si>
-  <si>
     <t>Stichaeus punctatus</t>
   </si>
   <si>
@@ -149,15 +175,12 @@
   </si>
   <si>
     <t>Salvelinus spp.</t>
-  </si>
-  <si>
-    <t>total equal to:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,20 +507,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,310 +531,1147 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.51569895575492697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.296773617859866</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>9.5666557956236103E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.16808819885335499</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4.99119661805658E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.3860309891408297E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4.99119661805658E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0837139041706197E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>4.99119661805658E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>4.99119661805658E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>4.99119661805658E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
+        <v>4.99119661805658E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>4.99119661805658E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
         <v>4.8690878322937302E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
         <v>3.79066134598008E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
         <v>2.49559830902829E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>1.22431327863408E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>7.7987205718161E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>3.5487210781209302E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.19536815165497E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>1.1174320786693801E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.12979864932964E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>9.7675080588191109E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3940265942307602E-3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>5.2245936632843598E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2276795017085599E-3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1.1174320786693801E-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>9.7675080588191109E-4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>9.1112672012609098E-4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>8.95121344701684E-4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>5.2031129384277495E-4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>4.41242420777895E-4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>3.0102710378628999E-4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2.9994127037615698E-4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>2.9676382716055502E-4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>2.8945126979110301E-4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>1.87473138548303E-4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C18">
-        <v>3.0102710378629102E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C29">
+        <v>1.5469448389017701E-4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.3227552874708201E-4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>7.16097075761347E-5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.11113014649523E-5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>9.4674958397889301E-6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>4.0506470359146502E-6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>2.1480724856607902E-6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>2.4380529453589799E-7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>2.9994127037615698E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
-        <v>2.9676382716055502E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>1.87473138548303E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>1.3227552874708201E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>7.16097075761347E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>1.11113014649523E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>9.4674958397889301E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>4.0506470359146603E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>2.4380529453589799E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
         <v>30</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30">
-        <f>SUM(C2:C28)</f>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <f>SUM(C:C)</f>
         <v>1.0000000000000004</v>
       </c>
     </row>
@@ -821,20 +1682,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="3" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,212 +1704,770 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>0.18964350211285999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>0.17596066550935299</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.147592603538892</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>8.6812407496054594E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>7.1236226964228697E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>6.3912256525738398E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>6.3912256525738398E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>0.45241657511826899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C9">
+        <v>5.5136608461958503E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>4.3686858891011003E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>2.3557402245063801E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>1.7445871463718201E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>1.3563276776715E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>1.0652042754289799E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>1.02432586037565E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>7.6610750843659897E-3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>5.0127983699793299E-3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>3.6802536000526999E-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>3.1810179576594998E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>2.6330906365178899E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>2.4581637125284002E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>7.0862707041380497E-4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0.147592603538892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C23">
+        <v>7.0272184482702096E-4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>3.5492066889422901E-4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>2.5209318538281701E-4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>7.1236226964228697E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>6.3912256525738398E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>6.3912256525738398E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>6.3590894067257597E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>5.5839330306785499E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>2.3557402245063801E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>2.0895301358046198E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>1.3563276776715E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>7.6610750843659897E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>5.0127983699793204E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14">
-        <v>3.6802536000526999E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>3.1810179576594998E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16">
-        <v>2.6330906365178899E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
         <v>40</v>
       </c>
-      <c r="C17">
-        <v>7.0862707041380497E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>3.5492066889422901E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>2.5209318538281701E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21">
-        <f>SUM(C2:C19)</f>
-        <v>1.0000000000000007</v>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f>SUM(C:C)</f>
+        <v>0.99999999999999944</v>
       </c>
     </row>
   </sheetData>
